--- a/public/format/importProduct.xlsx
+++ b/public/format/importProduct.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mohey_multi_vendor\public\format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C79AC-32A1-442A-83DF-5F156EDF4483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="format" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>PROXS01</t>
   </si>
@@ -75,7 +81,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -85,7 +91,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -132,7 +138,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -142,7 +148,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -167,7 +173,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -177,7 +183,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -188,37 +194,46 @@
   <si>
     <t>special_price</t>
   </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>Company ID (integer)</t>
+  </si>
+  <si>
+    <t>uofm_groups</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +241,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,7 +249,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -242,14 +257,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -257,7 +272,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,7 +280,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -273,28 +288,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,7 +317,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -310,7 +325,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -318,20 +333,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -729,48 +744,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="29" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="30" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="31" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="32" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="33" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="34" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="35" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="36" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="37" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="39" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="40" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - تمييز6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - تمييز6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - تمييز6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="إخراج" xfId="38" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="إدخال" xfId="34" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="الإجمالي" xfId="40" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="تمييز1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="تمييز2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="تمييز3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="تمييز4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="تمييز5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="تمييز6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="جيد" xfId="29" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="حساب" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="خلية تدقيق" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="خلية مرتبطة" xfId="35" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="سيئ" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="عنوان" xfId="39" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="عنوان 1" xfId="30" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="عنوان 2" xfId="31" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="عنوان 3" xfId="32" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="عنوان 4" xfId="33" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="محايد" xfId="36" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ملاحظة" xfId="37" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="نص تحذير" xfId="41" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="نص توضيحي" xfId="28" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -778,12 +793,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -825,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -858,9 +876,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -893,6 +928,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,30 +1120,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -1102,37 +1154,43 @@
         <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>27</v>
       </c>
@@ -1143,37 +1201,41 @@
         <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1183,38 +1245,44 @@
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
         <v>4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
+      <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="I3" s="9">
         <v>100</v>
       </c>
-      <c r="H3" s="9">
+      <c r="J3" s="9">
         <v>200</v>
       </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
         <v>150</v>
       </c>
-      <c r="J3" s="9">
+      <c r="L3" s="9">
         <v>100</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="199.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1224,34 +1292,38 @@
       <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="3"/>
+      <c r="E4" s="9">
         <v>22</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="9">
         <v>2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="I4" s="9">
         <v>200</v>
       </c>
-      <c r="H4" s="9">
+      <c r="J4" s="9">
         <v>300</v>
       </c>
-      <c r="I4" s="9">
+      <c r="K4" s="9">
         <v>270</v>
       </c>
-      <c r="J4" s="9">
+      <c r="L4" s="9">
         <v>100</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
